--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_13.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_13.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_9</t>
+          <t>model_1_13_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998605781536813</v>
+        <v>0.9463144318041746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8237800688416042</v>
+        <v>0.7163418274478615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8055114835732857</v>
+        <v>0.7770421969942638</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9870232739719619</v>
+        <v>0.9674988378010185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005803471574233018</v>
+        <v>0.1723460918391214</v>
       </c>
       <c r="G2" t="n">
-        <v>1.178383491074365</v>
+        <v>1.896823505981936</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6956741461662334</v>
+        <v>0.797507133515313</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02456767376802629</v>
+        <v>0.1465778544654573</v>
       </c>
       <c r="J2" t="n">
-        <v>0.227122582941914</v>
+        <v>1.21882667515015</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07618051965058402</v>
+        <v>0.4151458681465123</v>
       </c>
       <c r="L2" t="n">
-        <v>1.089229981643967</v>
+        <v>0.9268962475631314</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07738028668249952</v>
+        <v>0.4216840005762024</v>
       </c>
       <c r="N2" t="n">
-        <v>140.2985979864124</v>
+        <v>37.51650132399895</v>
       </c>
       <c r="O2" t="n">
-        <v>281.6337705296287</v>
+        <v>74.48108491222477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_8</t>
+          <t>model_1_13_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9986276357880779</v>
+        <v>0.946303175019394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8236412105034425</v>
+        <v>0.71627322750775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8051390437212358</v>
+        <v>0.7771345380077819</v>
       </c>
       <c r="E3" t="n">
-        <v>0.987597853669685</v>
+        <v>0.9671017229360549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005712502669903598</v>
+        <v>0.1723822293510975</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179312037421036</v>
+        <v>1.897282234097335</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6970063419217123</v>
+        <v>0.7971768350641983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02347987346023729</v>
+        <v>0.148368813340292</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2256851819112531</v>
+        <v>1.215435799572059</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07558109995166515</v>
+        <v>0.4151893897381019</v>
       </c>
       <c r="L3" t="n">
-        <v>1.087831309563015</v>
+        <v>0.926880919175345</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07677142672252255</v>
+        <v>0.4217282075893538</v>
       </c>
       <c r="N3" t="n">
-        <v>140.3301961107655</v>
+        <v>37.51608200815065</v>
       </c>
       <c r="O3" t="n">
-        <v>281.6653686539819</v>
+        <v>74.48066559637647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_7</t>
+          <t>model_1_13_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9986367915626776</v>
+        <v>0.9462895838611912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.823508049594406</v>
+        <v>0.7162049022648148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8043896072180166</v>
+        <v>0.7772218103532121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.988629441096588</v>
+        <v>0.9667018307962191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005674391513702138</v>
+        <v>0.172425860872166</v>
       </c>
       <c r="G4" t="n">
-        <v>1.180202485032913</v>
+        <v>1.897739125311452</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6996870328389023</v>
+        <v>0.7968646669449357</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02152686132816398</v>
+        <v>0.1501722975208232</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2235128772706432</v>
+        <v>1.212061336482518</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0753285570929255</v>
+        <v>0.4152419305322694</v>
       </c>
       <c r="L4" t="n">
-        <v>1.087245339988634</v>
+        <v>0.9268624120663029</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07651490656620799</v>
+        <v>0.4217815758485079</v>
       </c>
       <c r="N4" t="n">
-        <v>140.343583887237</v>
+        <v>37.51557585388642</v>
       </c>
       <c r="O4" t="n">
-        <v>281.6787564304535</v>
+        <v>74.48015944211224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_5</t>
+          <t>model_1_13_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9987831653203531</v>
+        <v>0.9462736152628903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8232701623958076</v>
+        <v>0.7161369278178467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.804716190004263</v>
+        <v>0.7773040664475577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.991882866677303</v>
+        <v>0.9662992769116735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005065106839662193</v>
+        <v>0.1724771246587254</v>
       </c>
       <c r="G5" t="n">
-        <v>1.18179323782531</v>
+        <v>1.898193670751321</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6985188651488572</v>
+        <v>0.7965704416649444</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01536744190890072</v>
+        <v>0.1519877859745026</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2010797089126022</v>
+        <v>1.208705882056795</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07116956399797734</v>
+        <v>0.4153036535581229</v>
       </c>
       <c r="L5" t="n">
-        <v>1.077877419497405</v>
+        <v>0.9268406675920209</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07229041348748222</v>
+        <v>0.4218442709503182</v>
       </c>
       <c r="N5" t="n">
-        <v>140.5707600955796</v>
+        <v>37.5149813239567</v>
       </c>
       <c r="O5" t="n">
-        <v>281.905932638796</v>
+        <v>74.47956491218252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_6</t>
+          <t>model_1_13_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.998781829273392</v>
+        <v>0.9462555451074295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8232361001557454</v>
+        <v>0.7160694080510763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8058173420302901</v>
+        <v>0.7773816503933133</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9910379116512122</v>
+        <v>0.9658944973500367</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005070668170805922</v>
+        <v>0.172535135047313</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182021012181449</v>
+        <v>1.898645175742614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6945801082002208</v>
+        <v>0.7962929283895518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01696711962304822</v>
+        <v>0.1538133120683988</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2024280805042623</v>
+        <v>1.205362404052414</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07120862427266744</v>
+        <v>0.4153734886187527</v>
       </c>
       <c r="L6" t="n">
-        <v>1.077962926502913</v>
+        <v>0.9268160614228828</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07233008892245273</v>
+        <v>0.4219152058433435</v>
       </c>
       <c r="N6" t="n">
-        <v>140.5685653618978</v>
+        <v>37.51430876363454</v>
       </c>
       <c r="O6" t="n">
-        <v>281.9037379051142</v>
+        <v>74.47889235186037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_4</t>
+          <t>model_1_13_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9988294378857527</v>
+        <v>0.9462352653843963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8228221752577429</v>
+        <v>0.7160022298252764</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8046009424944511</v>
+        <v>0.7774543562547281</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9934663446315634</v>
+        <v>0.9654872845368794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004872496050854991</v>
+        <v>0.1726002387823728</v>
       </c>
       <c r="G7" t="n">
-        <v>1.18478892988034</v>
+        <v>1.899094396847866</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6989310988090195</v>
+        <v>0.7960328637389993</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01236958484425453</v>
+        <v>0.155649811947942</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1898569807959886</v>
+        <v>1.202035690429418</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06980326676349032</v>
+        <v>0.4154518489336313</v>
       </c>
       <c r="L7" t="n">
-        <v>1.074915975311825</v>
+        <v>0.92678844648088</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07090259843734818</v>
+        <v>0.4219948002548499</v>
       </c>
       <c r="N7" t="n">
-        <v>140.6482978741591</v>
+        <v>37.51355423378025</v>
       </c>
       <c r="O7" t="n">
-        <v>281.9834704173755</v>
+        <v>74.47813782200606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_3</t>
+          <t>model_1_13_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9987940061008537</v>
+        <v>0.9462129083474015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8222683534975643</v>
+        <v>0.7159355004775318</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8029911972186734</v>
+        <v>0.7775225682404951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9940689275321971</v>
+        <v>0.9650778012560318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005019981801413937</v>
+        <v>0.1726720112918321</v>
       </c>
       <c r="G8" t="n">
-        <v>1.188492338540769</v>
+        <v>1.899540616303494</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7046890643220824</v>
+        <v>0.7957888734210685</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01122876857912157</v>
+        <v>0.1574965514700137</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1848148437445266</v>
+        <v>1.198724798413954</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07085182990871822</v>
+        <v>0.4155382188100538</v>
       </c>
       <c r="L8" t="n">
-        <v>1.077183609545365</v>
+        <v>0.926758002856036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07196767540393482</v>
+        <v>0.4220825303704878</v>
       </c>
       <c r="N8" t="n">
-        <v>140.5886579410028</v>
+        <v>37.51272274488442</v>
       </c>
       <c r="O8" t="n">
-        <v>281.9238304842193</v>
+        <v>74.47730633311025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_2</t>
+          <t>model_1_13_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9987907289632341</v>
+        <v>0.94618861514988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8221525101081392</v>
+        <v>0.7158692548832584</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8028262113464503</v>
+        <v>0.7775864393621137</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9946460772073348</v>
+        <v>0.9646666242895205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00503362297424457</v>
+        <v>0.1727499994326268</v>
       </c>
       <c r="G9" t="n">
-        <v>1.189266983819265</v>
+        <v>1.899983600897434</v>
       </c>
       <c r="H9" t="n">
-        <v>0.705279209220594</v>
+        <v>0.7955604101224996</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01013610276314701</v>
+        <v>0.1593509293900353</v>
       </c>
       <c r="J9" t="n">
-        <v>0.179874649723035</v>
+        <v>1.195424991298545</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07094803009417928</v>
+        <v>0.4156320481298655</v>
       </c>
       <c r="L9" t="n">
-        <v>1.07739334635302</v>
+        <v>0.9267249227572834</v>
       </c>
       <c r="M9" t="n">
-        <v>0.072065390646152</v>
+        <v>0.4221778374082917</v>
       </c>
       <c r="N9" t="n">
-        <v>140.5832305618662</v>
+        <v>37.51181963923744</v>
       </c>
       <c r="O9" t="n">
-        <v>281.9184031050826</v>
+        <v>74.47640322746325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_1</t>
+          <t>model_1_13_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.998764333921061</v>
+        <v>0.946162334326461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8221109882172517</v>
+        <v>0.7158034294582067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8023741683881073</v>
+        <v>0.7776457506128783</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9949568203855909</v>
+        <v>0.9642534245873212</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005143493041953928</v>
+        <v>0.1728343684233778</v>
       </c>
       <c r="G10" t="n">
-        <v>1.18954464089482</v>
+        <v>1.900423775817852</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7068961406716303</v>
+        <v>0.7953482572175785</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009547800520151299</v>
+        <v>0.16121442969945</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1778320439030095</v>
+        <v>1.192139872890372</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07171815001764845</v>
+        <v>0.4157335305497715</v>
       </c>
       <c r="L10" t="n">
-        <v>1.079082629052095</v>
+        <v>0.9266891361041172</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07284763918857831</v>
+        <v>0.422280918074866</v>
       </c>
       <c r="N10" t="n">
-        <v>140.5400457003568</v>
+        <v>37.5108431020989</v>
       </c>
       <c r="O10" t="n">
-        <v>281.8752182435732</v>
+        <v>74.47542669032472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_0</t>
+          <t>model_1_13_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9985580632762651</v>
+        <v>0.9461341669544936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8217000235803535</v>
+        <v>0.7157380966483401</v>
       </c>
       <c r="D11" t="n">
-        <v>0.800874958728083</v>
+        <v>0.7777006749946889</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9962845335977278</v>
+        <v>0.9638383247157437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006002100107690206</v>
+        <v>0.1729247937767663</v>
       </c>
       <c r="G11" t="n">
-        <v>1.192292763314077</v>
+        <v>1.90086065661826</v>
       </c>
       <c r="H11" t="n">
-        <v>0.712258726696366</v>
+        <v>0.7951517958885408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00703415994680479</v>
+        <v>0.1630864996332025</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1690956133230579</v>
+        <v>1.188864720650258</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07747322187498211</v>
+        <v>0.4158422703102299</v>
       </c>
       <c r="L11" t="n">
-        <v>1.092283950319036</v>
+        <v>0.9266507805337785</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07869334767470373</v>
+        <v>0.4223913703778517</v>
       </c>
       <c r="N11" t="n">
-        <v>140.2312917060954</v>
+        <v>37.50979699411003</v>
       </c>
       <c r="O11" t="n">
-        <v>281.5664642493118</v>
+        <v>74.47438058233585</v>
       </c>
     </row>
   </sheetData>
